--- a/app/src/main/res/raw/data.xlsx
+++ b/app/src/main/res/raw/data.xlsx
@@ -7,6 +7,7 @@
     <sheet state="visible" name="Acero inoxidable" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Bandeja" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Forrar Mesa" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Chapa Galvanizada" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>Nombre</t>
   </si>
@@ -89,6 +90,84 @@
   </si>
   <si>
     <t>Mesa M2</t>
+  </si>
+  <si>
+    <t>Galvanizada</t>
+  </si>
+  <si>
+    <t>Fraccionado</t>
+  </si>
+  <si>
+    <t>N25</t>
+  </si>
+  <si>
+    <t>N27</t>
+  </si>
+  <si>
+    <t>N30</t>
+  </si>
+  <si>
+    <t>Cincalum N27</t>
+  </si>
+  <si>
+    <t>Cincalum N25</t>
+  </si>
+  <si>
+    <t>Cincalum N22</t>
+  </si>
+  <si>
+    <t>Color lisa</t>
+  </si>
+  <si>
+    <t>Color plegada</t>
+  </si>
+  <si>
+    <t>Artistica</t>
+  </si>
+  <si>
+    <t>Plegado m2</t>
+  </si>
+  <si>
+    <t>Policarbonato 4mm m2</t>
+  </si>
+  <si>
+    <t>Policarbonato 6mm</t>
+  </si>
+  <si>
+    <t>Policarbonato 10mm</t>
+  </si>
+  <si>
+    <t>Acrilico compacto 2mm</t>
+  </si>
+  <si>
+    <t>Acrilico compacto 4mm</t>
+  </si>
+  <si>
+    <t>Vivak 1mm</t>
+  </si>
+  <si>
+    <t>Perfil H xm</t>
+  </si>
+  <si>
+    <t>Perfil U x 2,1</t>
+  </si>
+  <si>
+    <t>Chapa policarbonato acanalado</t>
+  </si>
+  <si>
+    <t>Compriband x m</t>
+  </si>
+  <si>
+    <t>Soporte plástico</t>
+  </si>
+  <si>
+    <t>Cintas x m</t>
+  </si>
+  <si>
+    <t>Hardox 3mm</t>
+  </si>
+  <si>
+    <t>Hardox 2mm</t>
   </si>
 </sst>
 </file>
@@ -163,6 +242,10 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -881,4 +964,331 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="22.63"/>
+    <col customWidth="1" min="7" max="7" width="28.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3680.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2620.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2660.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1970.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1690.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1165.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1800.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2600.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2815.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3200.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3500.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5560.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1">
+        <v>120.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1260.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1365.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1995.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2220.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2562.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2903.0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="1">
+        <v>9990.0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1950.0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1">
+        <v>580.0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1">
+        <v>600.0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1">
+        <v>13240.0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1">
+        <v>130.0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="1">
+        <v>18800.0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="1">
+        <v>12900.0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>